--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/10/seed1/result_data_KNN.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.15</v>
+        <v>-20.64</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -542,15 +542,15 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.242</v>
+        <v>16.398</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.932</v>
+        <v>-21.304</v>
       </c>
       <c r="B7" t="n">
-        <v>5.768</v>
+        <v>5.872</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.638</v>
+        <v>5.042</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.872</v>
+        <v>-21.918</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.748</v>
+        <v>-13.148</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -757,13 +757,13 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.122</v>
+        <v>-12.259</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.556</v>
+        <v>16.664</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.482</v>
+        <v>16.326</v>
       </c>
     </row>
     <row r="21">
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.48</v>
+        <v>8.324999999999999</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.664</v>
+        <v>16.655</v>
       </c>
     </row>
     <row r="22">
@@ -805,7 +805,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>7.470000000000001</v>
+        <v>6.710000000000001</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.696000000000001</v>
+        <v>7.083999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.822</v>
+        <v>17.143</v>
       </c>
     </row>
     <row r="25">
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.71</v>
+        <v>-21.767</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.782</v>
+        <v>-21.533</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.484</v>
+        <v>-21.684</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,13 +1009,13 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>7.81</v>
+        <v>7.821</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.828000000000001</v>
+        <v>-7.929</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.55</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="36">
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.556</v>
+        <v>-12.669</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1103,12 +1103,12 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.534</v>
+        <v>16.573</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.308</v>
+        <v>-20.444</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1137,7 +1137,7 @@
         <v>-8.720000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>16.656</v>
+        <v>16.489</v>
       </c>
     </row>
     <row r="42">
@@ -1162,13 +1162,13 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>6.268000000000001</v>
+        <v>5.922000000000001</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.190000000000001</v>
+        <v>-8.118</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.262</v>
+        <v>5.672</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.498</v>
+        <v>-13.805</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.537999999999999</v>
+        <v>-7.702</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1281,10 +1281,10 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>5.996</v>
+        <v>5.715000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>-12.994</v>
+        <v>-13.262</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.569999999999999</v>
+        <v>6.284</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.232</v>
+        <v>-21.712</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.184</v>
+        <v>-22.32</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.424</v>
+        <v>-21.398</v>
       </c>
       <c r="B66" t="n">
-        <v>6.074</v>
+        <v>5.859</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>6.108</v>
+        <v>5.571</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.025999999999999</v>
+        <v>-6.936</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1678,10 +1678,10 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.888</v>
+        <v>-8.270999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>16.352</v>
+        <v>16.402</v>
       </c>
     </row>
     <row r="74">
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.398</v>
+        <v>16.578</v>
       </c>
     </row>
     <row r="77">
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>5.662</v>
+        <v>5.495</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.763999999999999</v>
+        <v>5.453</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1885,7 +1885,7 @@
         <v>-7.87</v>
       </c>
       <c r="E85" t="n">
-        <v>16.452</v>
+        <v>16.794</v>
       </c>
     </row>
     <row r="86">
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.382</v>
+        <v>-7.933</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1995,13 +1995,13 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.062</v>
+        <v>5.673</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.343999999999999</v>
+        <v>-6.328</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-11.954</v>
+        <v>-12.25</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2080,10 +2080,10 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>6.456</v>
+        <v>6.433</v>
       </c>
       <c r="C97" t="n">
-        <v>-13.864</v>
+        <v>-13.439</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>16.276</v>
+        <v>16.518</v>
       </c>
     </row>
     <row r="99">
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.852</v>
+        <v>-21.907</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.068000000000001</v>
+        <v>-8.051</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
